--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:10:05+00:00</t>
+    <t>2024-04-10T14:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:13:50+00:00</t>
+    <t>2024-04-11T10:33:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:33:02+00:00</t>
+    <t>2024-04-11T10:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:34:35+00:00</t>
+    <t>2024-04-11T13:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:02:26+00:00</t>
+    <t>2024-04-12T09:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T09:40:09+00:00</t>
+    <t>2024-04-12T11:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:15:39+00:00</t>
+    <t>2024-04-16T08:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:17:53+00:00</t>
+    <t>2024-04-16T08:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:28:58+00:00</t>
+    <t>2024-04-16T18:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T18:12:52+00:00</t>
+    <t>2024-04-17T08:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T08:50:12+00:00</t>
+    <t>2024-04-17T10:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/districts-vs</t>
+    <t>https://example.org/fhir/ValueSet/districts-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T10:25:03+00:00</t>
+    <t>2024-04-17T11:58:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/CodeSystem/districts-cs</t>
+    <t>https://example.org/fhir/CodeSystem/districts-cs</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T11:58:12+00:00</t>
+    <t>2024-04-17T13:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:28:15+00:00</t>
+    <t>2024-04-17T13:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/districts-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/districts-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:33:19+00:00</t>
+    <t>2024-04-22T10:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://example.org/fhir/CodeSystem/districts-cs</t>
+    <t>https://dhis2.org/fhir/CodeSystem/districts-cs</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-districts-vs.xlsx
+++ b/ValueSet-districts-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T10:30:53+00:00</t>
+    <t>2024-04-22T11:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
